--- a/biology/Histoire de la zoologie et de la botanique/James_Rennie/James_Rennie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Rennie/James_Rennie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Rennie est un zoologiste britannique, né en 1787 à Sorn dans l'Ayrshire et mort en 1867 à Sydney.
 Il enseigne la zoologie au King's College de Londres.
@@ -512,17 +524,19 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1825 : The art of improving the voice and ear, and of increasing their musical powers, on philosophical principles; adapted to public speakers, musicians, and actors, and particularly useful for the instructors of youth[1] (S. Prowett, Londres).
-1831 : Insect miscellanies[2] (C. Knight, Londres).
-1831 : Insect transformations[3] (Lilly &amp; Wait, Boston).
-1832 : Alphabet of insects, for the use of beginners[4] (W. Orr, Londres).
-1833 : Alphabet of botany, for the use of beginners[5] (W. Orr, Londres).
-1834 : Alphabet of natural theology, for the use of beginners[6] (Orr and Smith, Londres).
-1835 : The faculties of birds[7] (Charles Knight, Londres).
-1840 : Natural history of birds. Their architecture, habits, and faculties[8] (Harper &amp; Brothers, New York).
-1869 : édition enrichie par John George Wood (1827-1889) Insect architecture[9] (G. Bell &amp; sons, Londres).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1825 : The art of improving the voice and ear, and of increasing their musical powers, on philosophical principles; adapted to public speakers, musicians, and actors, and particularly useful for the instructors of youth (S. Prowett, Londres).
+1831 : Insect miscellanies (C. Knight, Londres).
+1831 : Insect transformations (Lilly &amp; Wait, Boston).
+1832 : Alphabet of insects, for the use of beginners (W. Orr, Londres).
+1833 : Alphabet of botany, for the use of beginners (W. Orr, Londres).
+1834 : Alphabet of natural theology, for the use of beginners (Orr and Smith, Londres).
+1835 : The faculties of birds (Charles Knight, Londres).
+1840 : Natural history of birds. Their architecture, habits, and faculties (Harper &amp; Brothers, New York).
+1869 : édition enrichie par John George Wood (1827-1889) Insect architecture (G. Bell &amp; sons, Londres).</t>
         </is>
       </c>
     </row>
